--- a/06_Projektstrukturplan/Projektstrukturplan.xlsx
+++ b/06_Projektstrukturplan/Projektstrukturplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6045E9E7-EDB1-4B8B-85EC-0EA4856F9F3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDDDE7D-AD26-4729-A019-50D9AE890CE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="47" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="47" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="9">
-        <v>43935</v>
+        <v>43945</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -2209,13 +2209,13 @@
       <c r="G15" s="17">
         <v>43935</v>
       </c>
-      <c r="H15" s="35" t="e">
+      <c r="H15" s="35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
-      <c r="I15" s="35" t="e">
+      <c r="I15" s="35">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -2300,13 +2300,13 @@
       <c r="G16" s="17">
         <v>43935</v>
       </c>
-      <c r="H16" s="35" t="e">
+      <c r="H16" s="35">
         <f>IFERROR(_xlfn.IFS($C$5&lt;E16,0,$C$5&gt;F16,1),_xlfn.DAYS($C$5,E16)/_xlfn.DAYS(F16,E16))*IFERROR(_xlfn.DAYS($C$5,E16)/_xlfn.DAYS(F16,E16),1)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
-      <c r="I16" s="35" t="e">
+      <c r="I16" s="35">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -2391,13 +2391,13 @@
       <c r="G17" s="17">
         <v>43935</v>
       </c>
-      <c r="H17" s="35" t="e">
+      <c r="H17" s="35">
         <f>IFERROR(_xlfn.IFS($C$5&lt;E17,0,$C$5&gt;F17,1),_xlfn.DAYS($C$5,E17)/_xlfn.DAYS(F17,E17))*IFERROR(_xlfn.DAYS($C$5,E17)/_xlfn.DAYS(F17,E17),1)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
-      <c r="I17" s="35" t="e">
+      <c r="I17" s="35">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -2482,13 +2482,13 @@
       <c r="G18" s="17">
         <v>43935</v>
       </c>
-      <c r="H18" s="35" t="e">
+      <c r="H18" s="35">
         <f>IFERROR(_xlfn.IFS($C$5&lt;E18,0,$C$5&gt;F18,1),_xlfn.DAYS($C$5,E18)/_xlfn.DAYS(F18,E18))*IFERROR(_xlfn.DAYS($C$5,E18)/_xlfn.DAYS(F18,E18),1)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
-      <c r="I18" s="35" t="e">
+      <c r="I18" s="35">
         <f>IFERROR(_xlfn.IFS($C$5&lt;E18,0,$C$5&gt;G18,1),_xlfn.DAYS($C$5,E18)/_xlfn.DAYS(G18,E18))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -2573,13 +2573,13 @@
       <c r="G19" s="17">
         <v>43935</v>
       </c>
-      <c r="H19" s="35" t="e">
-        <f t="shared" ref="H19" si="4">IFERROR(_xlfn.IFS($C$5&lt;E19,0,$C$5&gt;F19,1),_xlfn.DAYS($C$5,E19)/_xlfn.DAYS(F19,E19))</f>
-        <v>#DIV/0!</v>
+      <c r="H19" s="35">
+        <f t="shared" ref="H19:H20" si="4">IFERROR(_xlfn.IFS($C$5&lt;E19,0,$C$5&gt;F19,1),_xlfn.DAYS($C$5,E19)/_xlfn.DAYS(F19,E19))</f>
+        <v>1</v>
       </c>
-      <c r="I19" s="35" t="e">
-        <f t="shared" ref="I19" si="5">IFERROR(_xlfn.IFS($C$5&lt;E19,0,$C$5&gt;G19,1),_xlfn.DAYS($C$5,E19)/_xlfn.DAYS(G19,E19))</f>
-        <v>#DIV/0!</v>
+      <c r="I19" s="35">
+        <f t="shared" ref="I19:I20" si="5">IFERROR(_xlfn.IFS($C$5&lt;E19,0,$C$5&gt;G19,1),_xlfn.DAYS($C$5,E19)/_xlfn.DAYS(G19,E19))</f>
+        <v>1</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
@@ -2661,9 +2661,17 @@
       <c r="F20" s="17">
         <v>43938</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="G20" s="17">
+        <v>43938</v>
+      </c>
+      <c r="H20" s="35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -2826,11 +2834,11 @@
       </c>
       <c r="H22" s="35">
         <f t="shared" ref="H22" si="6">IFERROR(_xlfn.IFS($C$5&lt;E22,0,$C$5&gt;F22,1),_xlfn.DAYS($C$5,E22)/_xlfn.DAYS(F22,E22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="35">
         <f t="shared" ref="I22" si="7">IFERROR(_xlfn.IFS($C$5&lt;E22,0,$C$5&gt;G22,1),_xlfn.DAYS($C$5,E22)/_xlfn.DAYS(G22,E22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
@@ -2917,11 +2925,11 @@
       </c>
       <c r="H23" s="35">
         <f t="shared" ref="H23" si="8">IFERROR(_xlfn.IFS($C$5&lt;E23,0,$C$5&gt;F23,1),_xlfn.DAYS($C$5,E23)/_xlfn.DAYS(F23,E23))</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I23" s="35">
         <f t="shared" ref="I23" si="9">IFERROR(_xlfn.IFS($C$5&lt;E23,0,$C$5&gt;G23,1),_xlfn.DAYS($C$5,E23)/_xlfn.DAYS(G23,E23))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -3008,11 +3016,11 @@
       </c>
       <c r="H24" s="35">
         <f>IFERROR(_xlfn.IFS($C$5&lt;E24,0,$C$5&gt;F24,1),_xlfn.DAYS($C$5,E24)/_xlfn.DAYS(F24,E24))*IFERROR(_xlfn.DAYS($C$5,E24)/_xlfn.DAYS(F24,E24),1)</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I24" s="35">
         <f>IFERROR(_xlfn.IFS($C$5&lt;E24,0,$C$5&gt;G24,1),_xlfn.DAYS($C$5,E24)/_xlfn.DAYS(G24,E24))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
@@ -3097,11 +3105,11 @@
       <c r="G25" s="21"/>
       <c r="H25" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
@@ -3186,11 +3194,11 @@
       <c r="G26" s="21"/>
       <c r="H26" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
@@ -3273,11 +3281,11 @@
       <c r="G27" s="21"/>
       <c r="H27" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
@@ -3363,11 +3371,11 @@
       <c r="G28" s="21"/>
       <c r="H28" s="35">
         <f>IFERROR(_xlfn.IFS($C$5&lt;E28,0,$C$5&gt;F28,1),_xlfn.DAYS($C$5,E28)/_xlfn.DAYS(F28,E28))</f>
-        <v>0</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="I28" s="35">
         <f>IFERROR(_xlfn.IFS($C$5&lt;E28,0,$C$5&gt;G28,1),_xlfn.DAYS($C$5,E28)/_xlfn.DAYS(G28,E28))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
@@ -3618,11 +3626,11 @@
       </c>
       <c r="H31" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
@@ -3710,11 +3718,11 @@
       </c>
       <c r="H32" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I32" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
@@ -3800,11 +3808,11 @@
       <c r="G33" s="21"/>
       <c r="H33" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I33" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -3890,11 +3898,11 @@
       <c r="G34" s="21"/>
       <c r="H34" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I34" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -3980,11 +3988,11 @@
       <c r="G35" s="21"/>
       <c r="H35" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I35" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
@@ -5215,7 +5223,7 @@
         <v>105</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E49" s="17">
         <v>43968</v>
@@ -73379,7 +73387,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H20 H22:H29 H31:H44 H46:H49">
+  <conditionalFormatting sqref="H22:H29 H31:H44 H46:H49 H10:H20">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -73491,7 +73499,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10:H20 H22:H29 H31:H44 H46:H49</xm:sqref>
+          <xm:sqref>H22:H29 H31:H44 H46:H49 H10:H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9B739C58-84CA-416D-A60A-1AEDF48A4644}">
